--- a/字典/生产管理数据字典.xlsx
+++ b/字典/生产管理数据字典.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CXM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wendang\字典\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA516C9B-A34D-4AE0-9A50-B0D8FBA21253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3CF02B-1E50-4F38-A1A9-A363F3A27112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="啤酒后发酵质检" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>表名：</t>
   </si>
   <si>
-    <t>啤酒发酵后质检数据   prod_test1</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
@@ -870,34 +867,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>包装车间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  prod_report3</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>workshop</t>
   </si>
   <si>
@@ -1120,6 +1089,14 @@
   </si>
   <si>
     <t xml:space="preserve">  清酒质检数据       prod_test2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒发酵后质检数据   prod_test1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 包装车间  prod_report3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1301,7 +1278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1508,9 +1485,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1529,7 +1504,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1843,11 +1817,12 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
@@ -1860,8 +1835,8 @@
       <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
-        <v>2</v>
+      <c r="C1" s="74" t="s">
+        <v>292</v>
       </c>
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
@@ -1873,22 +1848,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="F2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="G2" s="52" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,20 +1871,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="64">
         <v>11</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="64"/>
       <c r="G3" s="64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1917,10 +1892,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="64">
         <v>11</v>
@@ -1928,7 +1903,7 @@
       <c r="E4" s="64"/>
       <c r="F4" s="64"/>
       <c r="G4" s="66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1936,10 +1911,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="66" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="64">
         <v>0</v>
@@ -1947,7 +1922,7 @@
       <c r="E5" s="64"/>
       <c r="F5" s="64"/>
       <c r="G5" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1955,10 +1930,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="64">
         <v>0</v>
@@ -1966,7 +1941,7 @@
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
       <c r="G6" s="66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1974,10 +1949,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="66" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="64">
         <v>11</v>
@@ -1985,7 +1960,7 @@
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
       <c r="G7" s="66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1993,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="64">
         <v>60</v>
@@ -2004,7 +1979,7 @@
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
       <c r="G8" s="66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2012,10 +1987,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="64">
         <v>60</v>
@@ -2023,7 +1998,7 @@
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
       <c r="G9" s="55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2031,10 +2006,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="55">
         <v>60</v>
@@ -2042,7 +2017,7 @@
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
       <c r="G10" s="64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2050,10 +2025,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="55">
         <v>60</v>
@@ -2061,7 +2036,7 @@
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
       <c r="G11" s="64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2069,10 +2044,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="64">
         <v>60</v>
@@ -2080,7 +2055,7 @@
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
       <c r="G12" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2088,10 +2063,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="64">
         <v>60</v>
@@ -2099,7 +2074,7 @@
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
       <c r="G13" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2107,10 +2082,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="64">
         <v>60</v>
@@ -2118,7 +2093,7 @@
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
       <c r="G14" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2126,10 +2101,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="55">
         <v>60</v>
@@ -2137,7 +2112,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
       <c r="G15" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2145,20 +2120,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="64">
         <v>60</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="64"/>
       <c r="G16" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2166,10 +2141,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="64">
         <v>60</v>
@@ -2177,7 +2152,7 @@
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
       <c r="G17" s="64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,10 +2160,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="64">
         <v>60</v>
@@ -2196,7 +2171,7 @@
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
       <c r="G18" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2204,10 +2179,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="55">
         <v>200</v>
@@ -2215,7 +2190,7 @@
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
       <c r="G19" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2223,10 +2198,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="55">
         <v>30</v>
@@ -2234,7 +2209,7 @@
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
       <c r="G20" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2242,10 +2217,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="64">
         <v>11</v>
@@ -2253,7 +2228,7 @@
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
       <c r="G21" s="61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2261,10 +2236,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="66" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>54</v>
       </c>
       <c r="D22" s="64">
         <v>1</v>
@@ -2272,7 +2247,7 @@
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
       <c r="G22" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2280,16 +2255,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
       <c r="F23" s="64"/>
       <c r="G23" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,16 +2272,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
       <c r="G24" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2314,10 +2289,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="55">
         <v>50</v>
@@ -2325,7 +2300,7 @@
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2333,10 +2308,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="55">
         <v>50</v>
@@ -2344,7 +2319,7 @@
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2352,10 +2327,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="55">
         <v>50</v>
@@ -2363,7 +2338,7 @@
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2381,7 +2356,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="A1:G22"/>
+      <selection activeCell="D3" sqref="D3:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2396,13 +2371,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -2414,22 +2389,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2437,10 +2412,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="40">
         <v>0</v>
@@ -2448,7 +2423,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="40"/>
       <c r="G3" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2456,10 +2431,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="40">
         <v>11</v>
@@ -2467,7 +2442,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2475,10 +2450,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="40">
         <v>60</v>
@@ -2486,7 +2461,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2494,10 +2469,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="40">
         <v>30</v>
@@ -2505,7 +2480,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,10 +2488,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="40">
         <v>30</v>
@@ -2524,7 +2499,7 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -2532,10 +2507,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="40">
         <v>60</v>
@@ -2543,7 +2518,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2551,10 +2526,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="40">
         <v>60</v>
@@ -2562,7 +2537,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,10 +2545,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="39">
         <v>60</v>
@@ -2581,7 +2556,7 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2589,10 +2564,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="39">
         <v>30</v>
@@ -2600,7 +2575,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2608,10 +2583,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="40">
         <v>200</v>
@@ -2619,7 +2594,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2627,10 +2602,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="40">
         <v>30</v>
@@ -2638,7 +2613,7 @@
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2646,10 +2621,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="40">
         <v>11</v>
@@ -2657,7 +2632,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2665,10 +2640,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>54</v>
       </c>
       <c r="D15" s="39">
         <v>1</v>
@@ -2676,7 +2651,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2684,16 +2659,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="41"/>
       <c r="F16" s="40"/>
       <c r="G16" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2701,16 +2676,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2718,10 +2693,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="40">
         <v>11</v>
@@ -2729,7 +2704,7 @@
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2737,20 +2712,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>9</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>10</v>
       </c>
       <c r="D19" s="39">
         <v>11</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2758,10 +2733,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="21">
         <v>50</v>
@@ -2769,7 +2744,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,10 +2752,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="21">
         <v>50</v>
@@ -2788,7 +2763,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2796,10 +2771,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="21">
         <v>50</v>
@@ -2807,7 +2782,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2799,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D3" sqref="D3:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2835,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D1" s="74"/>
       <c r="E1" s="74"/>
@@ -2844,25 +2819,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="F2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="G2" s="52" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2870,10 +2845,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="59">
         <v>0</v>
@@ -2881,7 +2856,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="59"/>
       <c r="G3" s="60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2889,10 +2864,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="59">
         <v>11</v>
@@ -2900,7 +2875,7 @@
       <c r="E4" s="59"/>
       <c r="F4" s="59"/>
       <c r="G4" s="60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2908,10 +2883,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="59">
         <v>60</v>
@@ -2919,7 +2894,7 @@
       <c r="E5" s="59"/>
       <c r="F5" s="59"/>
       <c r="G5" s="60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,10 +2902,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="59">
         <v>30</v>
@@ -2938,7 +2913,7 @@
       <c r="E6" s="59"/>
       <c r="F6" s="59"/>
       <c r="G6" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2946,10 +2921,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="59">
         <v>30</v>
@@ -2957,7 +2932,7 @@
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
       <c r="G7" s="60" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,10 +2940,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="59">
         <v>30</v>
@@ -2976,7 +2951,7 @@
       <c r="E8" s="59"/>
       <c r="F8" s="59"/>
       <c r="G8" s="60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2984,10 +2959,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="59">
         <v>200</v>
@@ -2995,7 +2970,7 @@
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
       <c r="G9" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,10 +2978,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="55">
         <v>30</v>
@@ -3014,7 +2989,7 @@
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
       <c r="G10" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3022,10 +2997,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="55">
         <v>11</v>
@@ -3033,7 +3008,7 @@
       <c r="E11" s="59"/>
       <c r="F11" s="59"/>
       <c r="G11" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -3041,10 +3016,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D12" s="59">
         <v>1</v>
@@ -3052,7 +3027,7 @@
       <c r="E12" s="59"/>
       <c r="F12" s="59"/>
       <c r="G12" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3060,16 +3035,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
       <c r="G13" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3077,16 +3052,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
       <c r="F14" s="59"/>
       <c r="G14" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3094,10 +3069,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="55">
         <v>11</v>
@@ -3105,7 +3080,7 @@
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
       <c r="G15" s="62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -3113,20 +3088,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="59">
         <v>11</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="59"/>
       <c r="G16" s="54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3134,10 +3109,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="55">
         <v>50</v>
@@ -3145,7 +3120,7 @@
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3153,10 +3128,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="55">
         <v>50</v>
@@ -3164,7 +3139,7 @@
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3172,10 +3147,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="55">
         <v>50</v>
@@ -3183,7 +3158,7 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3201,7 +3176,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D3" sqref="D3:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3219,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -3228,25 +3203,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,20 +3229,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="49">
         <v>11</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,10 +3250,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="49">
         <v>11</v>
@@ -3286,7 +3261,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
       <c r="G4" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3294,10 +3269,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="49">
         <v>60</v>
@@ -3305,7 +3280,7 @@
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
       <c r="G5" s="49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3313,10 +3288,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="49">
         <v>60</v>
@@ -3324,7 +3299,7 @@
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
       <c r="G6" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3332,10 +3307,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="49">
         <v>0</v>
@@ -3343,7 +3318,7 @@
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="49" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3351,10 +3326,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="49">
         <v>60</v>
@@ -3362,7 +3337,7 @@
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3370,10 +3345,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="49">
         <v>0</v>
@@ -3381,7 +3356,7 @@
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3389,10 +3364,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="49">
         <v>30</v>
@@ -3400,7 +3375,7 @@
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3408,10 +3383,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="49">
         <v>30</v>
@@ -3419,7 +3394,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -3427,10 +3402,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="49">
         <v>60</v>
@@ -3438,7 +3413,7 @@
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="G12" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3446,10 +3421,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="49">
         <v>0</v>
@@ -3457,7 +3432,7 @@
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3465,10 +3440,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="49">
         <v>200</v>
@@ -3476,7 +3451,7 @@
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3484,10 +3459,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="49">
         <v>11</v>
@@ -3495,7 +3470,7 @@
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -3503,10 +3478,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="49" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>54</v>
       </c>
       <c r="D16" s="49">
         <v>1</v>
@@ -3514,7 +3489,7 @@
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
       <c r="G16" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -3522,16 +3497,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
       <c r="F17" s="49"/>
       <c r="G17" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -3539,16 +3514,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3556,10 +3531,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="55">
         <v>50</v>
@@ -3567,7 +3542,7 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3575,10 +3550,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="55">
         <v>50</v>
@@ -3586,7 +3561,7 @@
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3594,10 +3569,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="55">
         <v>50</v>
@@ -3605,7 +3580,7 @@
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3622,7 +3597,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G3" sqref="G3:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3641,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -3650,25 +3625,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3676,20 +3651,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="65">
         <v>11</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="65"/>
       <c r="G3" s="65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3697,10 +3672,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="65">
         <v>0</v>
@@ -3708,7 +3683,7 @@
       <c r="E4" s="65"/>
       <c r="F4" s="65"/>
       <c r="G4" s="65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3716,10 +3691,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="65">
         <v>60</v>
@@ -3727,7 +3702,7 @@
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3735,10 +3710,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="65">
         <v>60</v>
@@ -3746,7 +3721,7 @@
       <c r="E6" s="65"/>
       <c r="F6" s="65"/>
       <c r="G6" s="65" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3754,10 +3729,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="65">
         <v>60</v>
@@ -3765,7 +3740,7 @@
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
       <c r="G7" s="65" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3773,10 +3748,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="65">
         <v>30</v>
@@ -3784,7 +3759,7 @@
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
       <c r="G8" s="65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3792,10 +3767,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="65">
         <v>30</v>
@@ -3803,7 +3778,7 @@
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
       <c r="G9" s="65" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3811,10 +3786,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="65">
         <v>60</v>
@@ -3822,7 +3797,7 @@
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
       <c r="G10" s="65" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3830,10 +3805,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="65">
         <v>30</v>
@@ -3841,7 +3816,7 @@
       <c r="E11" s="65"/>
       <c r="F11" s="65"/>
       <c r="G11" s="65" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -3849,10 +3824,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="65">
         <v>30</v>
@@ -3860,7 +3835,7 @@
       <c r="E12" s="65"/>
       <c r="F12" s="65"/>
       <c r="G12" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3868,10 +3843,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="65">
         <v>60</v>
@@ -3879,7 +3854,7 @@
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
       <c r="G13" s="65" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,10 +3862,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="65">
         <v>60</v>
@@ -3898,7 +3873,7 @@
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
       <c r="G14" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3906,10 +3881,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="65">
         <v>11</v>
@@ -3917,7 +3892,7 @@
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>
       <c r="G15" s="65" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -3925,10 +3900,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="65" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>54</v>
       </c>
       <c r="D16" s="65">
         <v>1</v>
@@ -3936,7 +3911,7 @@
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
       <c r="G16" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -3944,16 +3919,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="65"/>
       <c r="F17" s="65"/>
       <c r="G17" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -3961,16 +3936,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
       <c r="G18" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3978,10 +3953,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="55">
         <v>50</v>
@@ -3989,7 +3964,7 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3997,10 +3972,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="55">
         <v>50</v>
@@ -4008,7 +3983,7 @@
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4016,10 +3991,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="55">
         <v>50</v>
@@ -4027,7 +4002,7 @@
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4044,7 +4019,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4060,10 +4035,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -4072,25 +4047,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4098,20 +4073,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="40">
         <v>11</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4119,10 +4094,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="40">
         <v>60</v>
@@ -4130,7 +4105,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4138,10 +4113,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="40">
         <v>60</v>
@@ -4149,7 +4124,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4157,10 +4132,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="40">
         <v>60</v>
@@ -4168,7 +4143,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4176,10 +4151,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="40">
         <v>60</v>
@@ -4187,7 +4162,7 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4195,10 +4170,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="40">
         <v>60</v>
@@ -4206,7 +4181,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4214,10 +4189,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="40">
         <v>60</v>
@@ -4225,7 +4200,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4233,10 +4208,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="40">
         <v>0</v>
@@ -4244,7 +4219,7 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4252,10 +4227,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="40">
         <v>60</v>
@@ -4263,7 +4238,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -4271,10 +4246,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="40">
         <v>11</v>
@@ -4282,7 +4257,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4290,10 +4265,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="40">
         <v>255</v>
@@ -4301,7 +4276,7 @@
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4309,10 +4284,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="40">
         <v>60</v>
@@ -4320,7 +4295,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4328,10 +4303,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="40">
         <v>11</v>
@@ -4339,7 +4314,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -4347,10 +4322,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="D16" s="40">
         <v>1</v>
@@ -4358,7 +4333,7 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -4366,16 +4341,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -4383,16 +4358,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4400,10 +4375,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="21">
         <v>50</v>
@@ -4411,7 +4386,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4419,10 +4394,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="21">
         <v>50</v>
@@ -4430,7 +4405,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4438,10 +4413,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="21">
         <v>50</v>
@@ -4449,7 +4424,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4465,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44240F1F-36F2-4725-B13E-16E280DF9A0C}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4484,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -4493,25 +4468,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4519,20 +4494,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="40">
         <v>11</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4540,10 +4515,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="40">
         <v>11</v>
@@ -4551,7 +4526,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4559,10 +4534,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="40">
         <v>60</v>
@@ -4570,7 +4545,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4578,10 +4553,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="40">
         <v>0</v>
@@ -4589,7 +4564,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4597,10 +4572,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="40">
         <v>30</v>
@@ -4608,7 +4583,7 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4616,10 +4591,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="40">
         <v>60</v>
@@ -4627,7 +4602,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4635,10 +4610,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="40">
         <v>60</v>
@@ -4646,7 +4621,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4654,10 +4629,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="40">
         <v>60</v>
@@ -4665,7 +4640,7 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4673,10 +4648,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="40">
         <v>60</v>
@@ -4684,7 +4659,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4692,10 +4667,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="40">
         <v>60</v>
@@ -4703,7 +4678,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4711,10 +4686,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="40">
         <v>60</v>
@@ -4722,7 +4697,7 @@
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4730,10 +4705,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="40">
         <v>60</v>
@@ -4741,7 +4716,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4749,10 +4724,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="40">
         <v>60</v>
@@ -4760,7 +4735,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4768,10 +4743,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="40">
         <v>60</v>
@@ -4779,7 +4754,7 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,10 +4762,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="40">
         <v>60</v>
@@ -4798,7 +4773,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4806,10 +4781,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="40">
         <v>60</v>
@@ -4817,7 +4792,7 @@
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4825,10 +4800,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="40">
         <v>60</v>
@@ -4836,7 +4811,7 @@
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4844,10 +4819,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="40">
         <v>60</v>
@@ -4855,7 +4830,7 @@
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4863,10 +4838,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="40">
         <v>60</v>
@@ -4874,7 +4849,7 @@
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -4882,10 +4857,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="40">
         <v>60</v>
@@ -4893,7 +4868,7 @@
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4901,10 +4876,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="40">
         <v>30</v>
@@ -4912,7 +4887,7 @@
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4920,10 +4895,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="40">
         <v>60</v>
@@ -4931,7 +4906,7 @@
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4939,10 +4914,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="40">
         <v>60</v>
@@ -4950,7 +4925,7 @@
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -4958,10 +4933,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="40">
         <v>60</v>
@@ -4969,7 +4944,7 @@
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4977,10 +4952,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="40">
         <v>60</v>
@@ -4988,7 +4963,7 @@
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4996,10 +4971,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="40">
         <v>60</v>
@@ -5007,7 +4982,7 @@
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5015,10 +4990,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="40">
         <v>255</v>
@@ -5026,7 +5001,7 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -5034,10 +5009,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="40">
         <v>11</v>
@@ -5045,7 +5020,7 @@
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
       <c r="G30" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -5053,10 +5028,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="D31" s="40">
         <v>1</v>
@@ -5064,7 +5039,7 @@
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
       <c r="G31" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5072,16 +5047,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
       <c r="G32" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5089,16 +5064,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -5106,10 +5081,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="21">
         <v>50</v>
@@ -5117,7 +5092,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -5125,10 +5100,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="21">
         <v>50</v>
@@ -5136,7 +5111,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -5144,10 +5119,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="21">
         <v>50</v>
@@ -5155,7 +5130,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5173,7 +5148,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D3" sqref="D3:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5184,13 +5159,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -5202,22 +5177,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5225,20 +5200,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="7">
         <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5246,10 +5221,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -5257,7 +5232,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5265,10 +5240,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
         <v>11</v>
@@ -5276,7 +5251,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5284,10 +5259,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
         <v>11</v>
@@ -5295,7 +5270,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5303,10 +5278,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
         <v>60</v>
@@ -5314,7 +5289,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5322,10 +5297,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
         <v>30</v>
@@ -5333,7 +5308,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5341,10 +5316,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
         <v>60</v>
@@ -5352,7 +5327,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5360,10 +5335,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6">
         <v>60</v>
@@ -5371,7 +5346,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5379,10 +5354,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6">
         <v>60</v>
@@ -5390,7 +5365,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5398,10 +5373,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7">
         <v>60</v>
@@ -5409,7 +5384,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5417,10 +5392,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
         <v>60</v>
@@ -5428,7 +5403,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5436,10 +5411,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
         <v>60</v>
@@ -5447,7 +5422,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5455,10 +5430,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6">
         <v>60</v>
@@ -5466,7 +5441,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5474,10 +5449,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
         <v>60</v>
@@ -5485,7 +5460,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="7"/>
       <c r="G16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5493,10 +5468,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
         <v>60</v>
@@ -5504,7 +5479,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5512,10 +5487,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
         <v>60</v>
@@ -5523,7 +5498,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5531,10 +5506,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="6">
         <v>200</v>
@@ -5542,7 +5517,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5550,10 +5525,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7">
         <v>30</v>
@@ -5561,7 +5536,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5569,10 +5544,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7">
         <v>60</v>
@@ -5580,7 +5555,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5588,10 +5563,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
@@ -5599,7 +5574,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5607,16 +5582,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5624,16 +5599,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5641,10 +5616,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
         <v>50</v>
@@ -5652,7 +5627,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5660,10 +5635,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2">
         <v>50</v>
@@ -5671,7 +5646,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5679,10 +5654,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2">
         <v>50</v>
@@ -5690,15 +5665,15 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="69" t="s">
         <v>15</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>16</v>
       </c>
       <c r="D28" s="68">
         <v>0</v>
@@ -5706,7 +5681,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="68"/>
       <c r="G28" s="69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -5724,7 +5699,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D3" sqref="D3:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5735,13 +5710,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -5753,22 +5728,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5776,10 +5751,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="14">
         <v>0</v>
@@ -5787,7 +5762,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="14"/>
       <c r="G3" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5795,10 +5770,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="14">
         <v>11</v>
@@ -5806,7 +5781,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5814,10 +5789,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="14">
         <v>60</v>
@@ -5825,7 +5800,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5833,10 +5808,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="14">
         <v>30</v>
@@ -5844,7 +5819,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5852,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="14">
         <v>60</v>
@@ -5863,7 +5838,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5871,10 +5846,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="14">
         <v>60</v>
@@ -5882,7 +5857,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5890,10 +5865,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="14">
         <v>60</v>
@@ -5901,7 +5876,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5909,10 +5884,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="13">
         <v>60</v>
@@ -5920,7 +5895,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5928,10 +5903,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="13">
         <v>60</v>
@@ -5939,7 +5914,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5947,10 +5922,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="14">
         <v>60</v>
@@ -5958,7 +5933,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5966,10 +5941,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="14">
         <v>60</v>
@@ -5977,7 +5952,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5985,10 +5960,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="14">
         <v>60</v>
@@ -5996,7 +5971,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6004,10 +5979,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="13">
         <v>60</v>
@@ -6015,7 +5990,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6023,10 +5998,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="14">
         <v>60</v>
@@ -6034,7 +6009,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
       <c r="G16" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6042,10 +6017,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="14">
         <v>200</v>
@@ -6053,7 +6028,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6061,10 +6036,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="14">
         <v>30</v>
@@ -6072,7 +6047,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6080,10 +6055,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="13">
         <v>11</v>
@@ -6091,7 +6066,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
       <c r="G19" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6099,10 +6074,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
@@ -6110,7 +6085,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6118,16 +6093,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6135,16 +6110,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6152,20 +6127,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="D23" s="14">
         <v>11</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6173,10 +6148,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="14">
         <v>11</v>
@@ -6184,7 +6159,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6192,10 +6167,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
         <v>50</v>
@@ -6203,7 +6178,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6211,10 +6186,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2">
         <v>50</v>
@@ -6222,7 +6197,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6230,10 +6205,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2">
         <v>50</v>
@@ -6241,18 +6216,18 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="77">
+      <c r="A28" s="70">
         <v>27</v>
       </c>
       <c r="B28" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="69" t="s">
         <v>18</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>19</v>
       </c>
       <c r="D28" s="68">
         <v>0</v>
@@ -6260,7 +6235,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="68"/>
       <c r="G28" s="69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6276,8 +6251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E375935-DC64-4386-973E-F30F4B9F946D}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="A1:G33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6292,13 +6267,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
@@ -6310,22 +6285,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6333,10 +6308,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -6344,7 +6319,7 @@
       <c r="E3" s="23"/>
       <c r="F3" s="22"/>
       <c r="G3" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6352,10 +6327,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="22">
         <v>0</v>
@@ -6363,7 +6338,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6371,10 +6346,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="22">
         <v>11</v>
@@ -6382,7 +6357,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6390,10 +6365,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22">
         <v>60</v>
@@ -6401,7 +6376,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6409,10 +6384,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="22">
         <v>30</v>
@@ -6420,7 +6395,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6428,10 +6403,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="22">
         <v>60</v>
@@ -6439,7 +6414,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6447,10 +6422,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="22">
         <v>60</v>
@@ -6458,7 +6433,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6466,10 +6441,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="21">
         <v>60</v>
@@ -6477,7 +6452,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -6485,10 +6460,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="21">
         <v>60</v>
@@ -6496,7 +6471,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6504,10 +6479,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="22">
         <v>60</v>
@@ -6515,7 +6490,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6523,10 +6498,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="22">
         <v>60</v>
@@ -6534,7 +6509,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -6542,10 +6517,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="22">
         <v>60</v>
@@ -6553,7 +6528,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6561,10 +6536,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="21">
         <v>60</v>
@@ -6572,7 +6547,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6580,10 +6555,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="22">
         <v>60</v>
@@ -6591,7 +6566,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="22"/>
       <c r="G16" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6599,10 +6574,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="22">
         <v>60</v>
@@ -6610,7 +6585,7 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6618,10 +6593,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="22">
         <v>60</v>
@@ -6629,7 +6604,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6637,10 +6612,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="21">
         <v>60</v>
@@ -6648,7 +6623,7 @@
       <c r="E19" s="23"/>
       <c r="F19" s="22"/>
       <c r="G19" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6656,10 +6631,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="22">
         <v>60</v>
@@ -6667,7 +6642,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6675,10 +6650,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="22">
         <v>60</v>
@@ -6686,7 +6661,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6694,10 +6669,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="22">
         <v>60</v>
@@ -6705,7 +6680,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6713,10 +6688,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="22">
         <v>200</v>
@@ -6724,7 +6699,7 @@
       <c r="E23" s="23"/>
       <c r="F23" s="22"/>
       <c r="G23" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6732,10 +6707,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="22">
         <v>60</v>
@@ -6743,7 +6718,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6751,10 +6726,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="22">
         <v>11</v>
@@ -6762,7 +6737,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6770,10 +6745,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="D26" s="22">
         <v>1</v>
@@ -6781,7 +6756,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6789,16 +6764,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6806,16 +6781,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6823,20 +6798,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>9</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>10</v>
       </c>
       <c r="D29" s="22">
         <v>11</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6844,10 +6819,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="22">
         <v>11</v>
@@ -6855,7 +6830,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6863,10 +6838,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="21">
         <v>50</v>
@@ -6874,7 +6849,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6882,10 +6857,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="21">
         <v>50</v>
@@ -6893,7 +6868,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6901,10 +6876,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="21">
         <v>50</v>
@@ -6912,7 +6887,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6930,7 +6905,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:G21"/>
+      <selection activeCell="D3" sqref="D3:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6945,13 +6920,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
@@ -6963,22 +6938,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6986,10 +6961,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="39">
         <v>0</v>
@@ -6997,7 +6972,7 @@
       <c r="E3" s="44"/>
       <c r="F3" s="39"/>
       <c r="G3" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7005,10 +6980,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="39">
         <v>11</v>
@@ -7016,7 +6991,7 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7024,10 +6999,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="39">
         <v>60</v>
@@ -7035,7 +7010,7 @@
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7043,10 +7018,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="39">
         <v>30</v>
@@ -7054,7 +7029,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7062,10 +7037,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="39">
         <v>60</v>
@@ -7073,7 +7048,7 @@
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7081,10 +7056,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="39">
         <v>60</v>
@@ -7092,7 +7067,7 @@
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
       <c r="G8" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7100,10 +7075,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="39">
         <v>60</v>
@@ -7111,7 +7086,7 @@
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
       <c r="G9" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -7119,10 +7094,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="39">
         <v>200</v>
@@ -7130,7 +7105,7 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7138,10 +7113,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="39">
         <v>30</v>
@@ -7149,7 +7124,7 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7157,10 +7132,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="39">
         <v>11</v>
@@ -7168,7 +7143,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7176,10 +7151,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="39">
         <v>1</v>
@@ -7187,7 +7162,7 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7195,10 +7170,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="39">
         <v>0</v>
@@ -7206,7 +7181,7 @@
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="G14" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7214,10 +7189,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="39">
         <v>0</v>
@@ -7225,7 +7200,7 @@
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7233,10 +7208,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="39">
         <v>11</v>
@@ -7244,7 +7219,7 @@
       <c r="E16" s="44"/>
       <c r="F16" s="39"/>
       <c r="G16" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7252,20 +7227,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>9</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>10</v>
       </c>
       <c r="D17" s="39">
         <v>11</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7273,10 +7248,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="21">
         <v>50</v>
@@ -7284,7 +7259,7 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7292,10 +7267,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="21">
         <v>50</v>
@@ -7303,7 +7278,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7311,10 +7286,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="21">
         <v>50</v>
@@ -7322,15 +7297,15 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="69" t="s">
         <v>15</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>16</v>
       </c>
       <c r="D21" s="68">
         <v>0</v>
@@ -7338,7 +7313,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="68"/>
       <c r="G21" s="69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -7354,8 +7329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA726C6-B455-4251-93EF-435C1F4C4270}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7370,13 +7345,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -7388,22 +7363,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7411,10 +7386,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="40">
         <v>0</v>
@@ -7422,7 +7397,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="40"/>
       <c r="G3" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7430,10 +7405,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="40">
         <v>11</v>
@@ -7441,7 +7416,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7449,10 +7424,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="40">
         <v>60</v>
@@ -7460,7 +7435,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7468,10 +7443,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="40">
         <v>30</v>
@@ -7479,7 +7454,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7487,10 +7462,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="40">
         <v>60</v>
@@ -7498,7 +7473,7 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7506,10 +7481,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="40">
         <v>60</v>
@@ -7517,7 +7492,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -7525,10 +7500,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="40">
         <v>60</v>
@@ -7536,7 +7511,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -7544,10 +7519,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="39">
         <v>60</v>
@@ -7555,7 +7530,7 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7563,10 +7538,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="39">
         <v>11</v>
@@ -7574,7 +7549,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -7582,10 +7557,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="40">
         <v>11</v>
@@ -7593,7 +7568,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7601,10 +7576,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="40">
         <v>1</v>
@@ -7612,7 +7587,7 @@
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7620,10 +7595,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="40">
         <v>0</v>
@@ -7631,7 +7606,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7639,10 +7614,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="39">
         <v>0</v>
@@ -7650,7 +7625,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -7658,20 +7633,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>9</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>10</v>
       </c>
       <c r="D16" s="40">
         <v>11</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7679,10 +7654,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="21">
         <v>50</v>
@@ -7690,7 +7665,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7698,10 +7673,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="21">
         <v>50</v>
@@ -7709,7 +7684,7 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7717,10 +7692,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="21">
         <v>50</v>
@@ -7728,15 +7703,15 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="69" t="s">
         <v>15</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>16</v>
       </c>
       <c r="D20" s="68">
         <v>0</v>
@@ -7744,7 +7719,7 @@
       <c r="E20" s="68"/>
       <c r="F20" s="68"/>
       <c r="G20" s="69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -7761,7 +7736,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="A1:G23"/>
+      <selection activeCell="D3" sqref="D3:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7776,13 +7751,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -7794,22 +7769,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -7817,10 +7792,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="40">
         <v>0</v>
@@ -7828,7 +7803,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="40"/>
       <c r="G3" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -7836,10 +7811,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="40">
         <v>11</v>
@@ -7847,7 +7822,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -7855,10 +7830,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="40">
         <v>60</v>
@@ -7866,7 +7841,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -7874,10 +7849,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="40">
         <v>30</v>
@@ -7885,7 +7860,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -7893,10 +7868,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="40">
         <v>30</v>
@@ -7904,7 +7879,7 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -7912,10 +7887,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="40">
         <v>60</v>
@@ -7923,7 +7898,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -7931,10 +7906,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="40">
         <v>60</v>
@@ -7942,7 +7917,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -7950,10 +7925,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="40">
         <v>60</v>
@@ -7961,7 +7936,7 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -7969,10 +7944,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="40">
         <v>60</v>
@@ -7980,7 +7955,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -7988,10 +7963,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="40">
         <v>60</v>
@@ -7999,7 +7974,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -8007,10 +7982,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="40">
         <v>200</v>
@@ -8018,7 +7993,7 @@
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -8026,10 +8001,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="40">
         <v>30</v>
@@ -8037,7 +8012,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -8045,10 +8020,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="40">
         <v>11</v>
@@ -8056,7 +8031,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -8064,10 +8039,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>54</v>
       </c>
       <c r="D16" s="40">
         <v>1</v>
@@ -8075,7 +8050,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8083,16 +8058,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8100,16 +8075,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8117,10 +8092,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="40">
         <v>11</v>
@@ -8128,7 +8103,7 @@
       <c r="E19" s="41"/>
       <c r="F19" s="40"/>
       <c r="G19" s="41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -8136,20 +8111,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>9</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>10</v>
       </c>
       <c r="D20" s="40">
         <v>11</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8157,10 +8132,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="21">
         <v>50</v>
@@ -8168,7 +8143,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -8176,10 +8151,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="21">
         <v>50</v>
@@ -8187,7 +8162,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -8195,10 +8170,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="21">
         <v>50</v>
@@ -8206,7 +8181,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8223,7 +8198,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="A1:G28"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8233,13 +8208,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -8251,22 +8226,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8274,10 +8249,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="40">
         <v>0</v>
@@ -8285,7 +8260,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="40"/>
       <c r="G3" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8293,10 +8268,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="40">
         <v>11</v>
@@ -8304,7 +8279,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8312,10 +8287,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="40">
         <v>60</v>
@@ -8323,7 +8298,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8331,10 +8306,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="40">
         <v>60</v>
@@ -8342,7 +8317,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8350,10 +8325,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="40">
         <v>60</v>
@@ -8361,7 +8336,7 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8369,10 +8344,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="40">
         <v>60</v>
@@ -8380,7 +8355,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8388,10 +8363,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="40">
         <v>60</v>
@@ -8399,7 +8374,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8407,10 +8382,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="40">
         <v>60</v>
@@ -8418,7 +8393,7 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8426,10 +8401,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="40">
         <v>60</v>
@@ -8437,7 +8412,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8445,10 +8420,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="40">
         <v>60</v>
@@ -8456,7 +8431,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8464,10 +8439,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="40">
         <v>60</v>
@@ -8475,7 +8450,7 @@
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8483,10 +8458,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="40">
         <v>60</v>
@@ -8494,7 +8469,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8502,10 +8477,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="40">
         <v>60</v>
@@ -8513,7 +8488,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8521,10 +8496,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="40">
         <v>60</v>
@@ -8532,7 +8507,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="40"/>
       <c r="G16" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8540,10 +8515,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="40">
         <v>60</v>
@@ -8551,7 +8526,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8559,10 +8534,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="40">
         <v>200</v>
@@ -8570,7 +8545,7 @@
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8578,10 +8553,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="40">
         <v>60</v>
@@ -8589,7 +8564,7 @@
       <c r="E19" s="41"/>
       <c r="F19" s="40"/>
       <c r="G19" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -8597,10 +8572,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="40">
         <v>11</v>
@@ -8608,7 +8583,7 @@
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8616,10 +8591,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="D21" s="40">
         <v>1</v>
@@ -8627,7 +8602,7 @@
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -8635,16 +8610,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -8652,16 +8627,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
       <c r="G23" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -8669,10 +8644,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="40">
         <v>11</v>
@@ -8680,7 +8655,7 @@
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8688,20 +8663,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>9</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>10</v>
       </c>
       <c r="D25" s="40">
         <v>11</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -8709,10 +8684,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="21">
         <v>50</v>
@@ -8720,7 +8695,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -8728,10 +8703,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="21">
         <v>50</v>
@@ -8739,7 +8714,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8747,10 +8722,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="21">
         <v>50</v>
@@ -8758,7 +8733,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8775,7 +8750,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="A1:G23"/>
+      <selection activeCell="D3" sqref="D3:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8785,13 +8760,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
@@ -8803,22 +8778,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8826,10 +8801,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="40">
         <v>0</v>
@@ -8837,7 +8812,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="40"/>
       <c r="G3" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8845,10 +8820,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="40">
         <v>11</v>
@@ -8856,7 +8831,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8864,10 +8839,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="40">
         <v>60</v>
@@ -8875,7 +8850,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8883,10 +8858,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="40">
         <v>30</v>
@@ -8894,7 +8869,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8902,10 +8877,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="40">
         <v>30</v>
@@ -8913,7 +8888,7 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8921,10 +8896,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="40">
         <v>30</v>
@@ -8932,7 +8907,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8940,10 +8915,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="40">
         <v>30</v>
@@ -8951,7 +8926,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8959,10 +8934,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="40">
         <v>30</v>
@@ -8970,7 +8945,7 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8978,10 +8953,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="40">
         <v>30</v>
@@ -8989,7 +8964,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -8997,10 +8972,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="40">
         <v>30</v>
@@ -9008,7 +8983,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -9016,10 +8991,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="40">
         <v>200</v>
@@ -9027,7 +9002,7 @@
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -9035,10 +9010,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="40">
         <v>30</v>
@@ -9046,7 +9021,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -9054,10 +9029,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="40">
         <v>11</v>
@@ -9065,7 +9040,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -9073,10 +9048,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="40">
         <v>11</v>
@@ -9084,7 +9059,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -9092,10 +9067,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="D17" s="40">
         <v>1</v>
@@ -9103,7 +9078,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -9111,16 +9086,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -9128,16 +9103,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="41"/>
       <c r="F19" s="40"/>
       <c r="G19" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -9145,20 +9120,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>9</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>10</v>
       </c>
       <c r="D20" s="40">
         <v>11</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -9166,10 +9141,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="21">
         <v>50</v>
@@ -9177,7 +9152,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -9185,10 +9160,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="21">
         <v>50</v>
@@ -9196,7 +9171,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -9204,10 +9179,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="21">
         <v>50</v>
@@ -9215,7 +9190,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
